--- a/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="149">
   <si>
     <t>土地.坐落</t>
   </si>
@@ -253,6 +253,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>允強實業股份有限公司</t>
   </si>
   <si>
@@ -275,6 +284,9 @@
   </si>
   <si>
     <t>、2，100,000</t>
+  </si>
+  <si>
+    <t>2013-12-24</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1016,22 +1028,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1042,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E2" s="2">
         <v>3121510</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1065,19 +1077,19 @@
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1085,22 +1097,22 @@
         <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1108,22 +1120,22 @@
         <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1830,13 +1842,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
@@ -1855,13 +1867,22 @@
       <c r="G1" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -1878,13 +1899,22 @@
       <c r="G2" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -1901,13 +1931,22 @@
       <c r="G3" s="2">
         <v>600000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -1924,13 +1963,22 @@
       <c r="G4" s="2">
         <v>10100</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -1947,13 +1995,22 @@
       <c r="G5" s="2">
         <v>77780</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
@@ -1970,13 +2027,22 @@
       <c r="G6" s="2">
         <v>62220</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -1991,15 +2057,24 @@
         <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>86</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -2015,6 +2090,15 @@
       </c>
       <c r="G8" s="2">
         <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1377</v>
       </c>
     </row>
   </sheetData>
@@ -2032,22 +2116,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>55</v>
@@ -2058,13 +2142,13 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
         <v>1807.5</v>
@@ -2084,13 +2168,13 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2">
         <v>25000</v>
@@ -2120,16 +2204,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2137,7 +2221,7 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2154,7 +2238,7 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -2171,7 +2255,7 @@
         <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2188,13 +2272,13 @@
         <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2">
         <v>300000</v>
@@ -2205,7 +2289,7 @@
         <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -2232,16 +2316,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2249,16 +2333,16 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2266,16 +2350,16 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2283,16 +2367,16 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2313,19 +2397,19 @@
         <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2333,22 +2417,22 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E2" s="2">
         <v>4906941</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2356,22 +2440,22 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E3" s="2">
         <v>2145070</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2379,22 +2463,22 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E4" s="2">
         <v>3078950</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2402,17 +2486,17 @@
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G5" s="2"/>
     </row>

--- a/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="151">
   <si>
     <t>土地.坐落</t>
   </si>
@@ -253,6 +253,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -265,7 +268,7 @@
     <t>允強實業股份有限公司</t>
   </si>
   <si>
-    <t>大甲永和機械工業股份有 限公司 '</t>
+    <t>大甲永和機械工業股份有限公司</t>
   </si>
   <si>
     <t>健和興端子股份有限公司</t>
@@ -277,13 +280,16 @@
     <t>凱雷國際</t>
   </si>
   <si>
-    <t>希華晶體科技股份有限公 司</t>
-  </si>
-  <si>
-    <t>中華開發金融控股股份有 限公司</t>
-  </si>
-  <si>
-    <t>、2，100,000</t>
+    <t>希華晶體科技股份有限公司</t>
+  </si>
+  <si>
+    <t>中華開發金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>、2100000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-12-24</t>
@@ -1028,22 +1034,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1054,19 +1060,19 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2">
         <v>3121510</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1077,19 +1083,19 @@
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1097,22 +1103,22 @@
         <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1120,22 +1126,22 @@
         <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1842,13 +1848,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
@@ -1876,13 +1882,16 @@
       <c r="J1" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -1900,21 +1909,24 @@
         <v>200000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2">
+        <v>89</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2">
         <v>1377</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -1932,21 +1944,24 @@
         <v>600000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2">
+        <v>89</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2">
         <v>1377</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -1964,21 +1979,24 @@
         <v>10100</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="2">
+        <v>89</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2">
         <v>1377</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -1996,21 +2014,24 @@
         <v>77780</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="2">
+        <v>89</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="2">
         <v>1377</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
@@ -2028,21 +2049,24 @@
         <v>62220</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="2">
+        <v>89</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="2">
         <v>1377</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -2057,24 +2081,27 @@
         <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="2">
+        <v>89</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="2">
         <v>1377</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -2092,12 +2119,15 @@
         <v>20</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="2">
+        <v>89</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="2">
         <v>1377</v>
       </c>
     </row>
@@ -2116,22 +2146,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>55</v>
@@ -2142,13 +2172,13 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>1807.5</v>
@@ -2168,13 +2198,13 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2">
         <v>25000</v>
@@ -2204,16 +2234,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2221,7 +2251,7 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2238,7 +2268,7 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -2255,7 +2285,7 @@
         <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2272,13 +2302,13 @@
         <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2">
         <v>300000</v>
@@ -2289,7 +2319,7 @@
         <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -2316,16 +2346,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2333,16 +2363,16 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2350,16 +2380,16 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2367,16 +2397,16 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2397,19 +2427,19 @@
         <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2417,22 +2447,22 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2">
         <v>4906941</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2440,22 +2470,22 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2">
         <v>2145070</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2463,22 +2493,22 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E4" s="2">
         <v>3078950</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2486,17 +2516,17 @@
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G5" s="2"/>
     </row>

--- a/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="156">
   <si>
     <t>土地.坐落</t>
   </si>
@@ -256,6 +256,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -265,6 +268,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>允強實業股份有限公司</t>
   </si>
   <si>
@@ -286,13 +295,19 @@
     <t>中華開發金融控股股份有限公司</t>
   </si>
   <si>
-    <t>、2100000</t>
+    <t>2100000</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-12-24</t>
+  </si>
+  <si>
+    <t>tmp30a51</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1034,22 +1049,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1060,19 +1075,19 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2">
         <v>3121510</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1083,19 +1098,19 @@
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1103,22 +1118,22 @@
         <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1126,22 +1141,22 @@
         <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1848,13 +1863,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
@@ -1885,13 +1900,22 @@
       <c r="K1" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -1909,24 +1933,33 @@
         <v>200000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2">
+        <v>93</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2">
         <v>1377</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -1944,24 +1977,33 @@
         <v>600000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2">
+        <v>93</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2">
         <v>1377</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -1979,24 +2021,33 @@
         <v>10100</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2">
+        <v>93</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="2">
         <v>1377</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -2014,24 +2065,33 @@
         <v>77780</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="2">
+        <v>93</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="2">
         <v>1377</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
@@ -2049,24 +2109,33 @@
         <v>62220</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="2">
+        <v>93</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="2">
         <v>1377</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -2081,27 +2150,36 @@
         <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="2">
         <v>87</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -2119,16 +2197,25 @@
         <v>20</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="2">
         <v>88</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1377</v>
       </c>
     </row>
   </sheetData>
@@ -2146,22 +2233,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>55</v>
@@ -2172,13 +2259,13 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2">
         <v>1807.5</v>
@@ -2198,13 +2285,13 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2">
         <v>25000</v>
@@ -2234,16 +2321,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2251,7 +2338,7 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2268,7 +2355,7 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -2285,7 +2372,7 @@
         <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2302,13 +2389,13 @@
         <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2">
         <v>300000</v>
@@ -2319,7 +2406,7 @@
         <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -2346,16 +2433,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2363,16 +2450,16 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2380,16 +2467,16 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2397,16 +2484,16 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2427,19 +2514,19 @@
         <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2447,22 +2534,22 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2">
         <v>4906941</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2470,22 +2557,22 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E3" s="2">
         <v>2145070</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2493,22 +2580,22 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2">
         <v>3078950</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2516,17 +2603,17 @@
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G5" s="2"/>
     </row>

--- a/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
@@ -23,9 +23,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="156">
-  <si>
-    <t>土地.坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="158">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市清水區清水段清水小段00290000地號</t>
+  </si>
+  <si>
+    <t>臺中市清水區清水段清水小段00290002地號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區大新段08600000地號</t>
+  </si>
+  <si>
+    <t>臺中市清水區田寮段橋頭小段02530000地號</t>
+  </si>
+  <si>
+    <t>臺中市梧棲區三民段00910014地號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00780000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>100000分之605</t>
+  </si>
+  <si>
+    <t>100000分之3041</t>
+  </si>
+  <si>
+    <t>蔡其昌</t>
+  </si>
+  <si>
+    <t>黃玉廷</t>
+  </si>
+  <si>
+    <t>87年12月29日</t>
+  </si>
+  <si>
+    <t>91年03月29日</t>
+  </si>
+  <si>
+    <t>90年10月04日</t>
+  </si>
+  <si>
+    <t>100年06月14曰</t>
+  </si>
+  <si>
+    <t>102年06月11曰</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>19720000</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-24</t>
+  </si>
+  <si>
+    <t>tmp30a51</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -46,121 +160,55 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺中市清水區清水段清水小段 0029-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市清水區清水段清水小段 0029-0002 地號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區大新段0860-0000 地號 '</t>
-  </si>
-  <si>
-    <t>臺中市清水區田寮段橋頭小段 0253-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市梧棲區三民段0091 -0014 地號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段0078-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>100000 分 之605</t>
-  </si>
-  <si>
-    <t>100000 分 之 3041</t>
-  </si>
-  <si>
-    <t>蔡其昌</t>
-  </si>
-  <si>
-    <t>黃玉廷</t>
-  </si>
-  <si>
-    <t>87年12月 29日</t>
-  </si>
-  <si>
-    <t>91年03月 29日</t>
-  </si>
-  <si>
-    <t>90年10月 04日</t>
-  </si>
-  <si>
-    <t>100 年 06 月14曰</t>
-  </si>
-  <si>
-    <t>102 年 06 月11曰</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>19,720，000</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺中市南屯區大新段09139-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區大新段09228-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區大新段09229-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市清水區田寮段橋頭小段 01010-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市梧棲區三民段02032-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市清水區清水段清水小段 00168-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00827-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00837-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠義段00838-000 建號</t>
-  </si>
-  <si>
-    <t>100000 分 之586</t>
+    <t>臺中市南屯區大新段09139000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區大新段09228000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區大新段09229000建號</t>
+  </si>
+  <si>
+    <t>臺中市清水區田寮段橋頭小段01010000建號</t>
+  </si>
+  <si>
+    <t>臺中市梧棲區三民段02032000建號</t>
+  </si>
+  <si>
+    <t>臺中市清水區清水段清水小段00168000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00827000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00837000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠義段00838000建號</t>
+  </si>
+  <si>
+    <t>100000分之586</t>
   </si>
   <si>
     <t>213分之1</t>
   </si>
   <si>
-    <t>1000000 分 之 29122</t>
-  </si>
-  <si>
-    <t>1000000 分 之 33448</t>
-  </si>
-  <si>
-    <t>100 年 06</t>
-  </si>
-  <si>
-    <t>買賣•</t>
-  </si>
-  <si>
-    <t>5，430，000(主 建物）</t>
-  </si>
-  <si>
-    <t>2’700，000(共 有部分）</t>
-  </si>
-  <si>
-    <t>1，150，000(車 位）</t>
+    <t>1000000分之29122</t>
+  </si>
+  <si>
+    <t>1000000分之33448</t>
+  </si>
+  <si>
+    <t>100年06</t>
+  </si>
+  <si>
+    <t>5430000(主建物）</t>
+  </si>
+  <si>
+    <t>2700000(共有部分）</t>
+  </si>
+  <si>
+    <t>1150000(車位）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -172,10 +220,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>Honda CR-V</t>
-  </si>
-  <si>
-    <t>96年07月 11曰</t>
+    <t>HondaCRV</t>
+  </si>
+  <si>
+    <t>96年07月11曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -202,10 +250,10 @@
     <t>華南商業銀行豐原分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行西台中 分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行沙鹿分 行</t>
+    <t>國泰世華商業銀行西台中分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行沙鹿分行</t>
   </si>
   <si>
     <t>永豐商業銀行南台中分行</t>
@@ -232,13 +280,7 @@
     <t>美金</t>
   </si>
   <si>
-    <t>5，460</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>5460</t>
   </si>
   <si>
     <t>quantity</t>
@@ -253,27 +295,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>允強實業股份有限公司</t>
   </si>
   <si>
@@ -301,15 +322,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-24</t>
-  </si>
-  <si>
-    <t>tmp30a51</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -325,7 +337,7 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>復華全球大趨勢 基金</t>
+    <t>復華全球大趨勢基金</t>
   </si>
   <si>
     <t>寶來滬深300ETF</t>
@@ -340,7 +352,7 @@
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/件</t>
+    <t>項件</t>
   </si>
   <si>
     <t>價額</t>
@@ -391,13 +403,13 @@
     <t>添美盛美元終身壽險</t>
   </si>
   <si>
-    <t>保額20萬，被保險人蔡◦葳</t>
-  </si>
-  <si>
-    <t>保額30萬，被保險人蔡〇鵬</t>
-  </si>
-  <si>
-    <t>保額3000美元，被保險人蔡 其昌</t>
+    <t>保額20萬被保險人蔡◦葳</t>
+  </si>
+  <si>
+    <t>保額30萬被保險人蔡〇鵬</t>
+  </si>
+  <si>
+    <t>保額3000美元被保險人蔡其昌</t>
   </si>
   <si>
     <t>債務人</t>
@@ -418,28 +430,25 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>房屋貸款 ,</t>
-  </si>
-  <si>
-    <t>第一銀行大甲分行 臺中市大甲區順天路361號</t>
-  </si>
-  <si>
-    <t>國泰世華銀行沙鹿分行 臺中市沙鹿區成功東街86 號</t>
-  </si>
-  <si>
-    <t>安泰銀行豐原分行 臺中市豐原區信義街67巷 15號</t>
+    <t>第一銀行大甲分行臺中市大甲區順天路361號</t>
+  </si>
+  <si>
+    <t>國泰世華銀行沙鹿分行臺中市沙鹿區成功東街86號</t>
+  </si>
+  <si>
+    <t>安泰銀行豐原分行臺中市豐原區信義街67巷15號</t>
   </si>
   <si>
     <t>玉山銀行台中分行</t>
   </si>
   <si>
-    <t>100年06月 27日</t>
-  </si>
-  <si>
-    <t>100年06月 23日</t>
-  </si>
-  <si>
-    <t>91年04月 04日</t>
+    <t>100年06月27日</t>
+  </si>
+  <si>
+    <t>100年06月23日</t>
+  </si>
+  <si>
+    <t>91年04月04日</t>
   </si>
   <si>
     <t>102年06月</t>
@@ -451,7 +460,7 @@
     <t>購置房屋</t>
   </si>
   <si>
-    <t>親友與本人 投資資金需 求</t>
+    <t>親友與本人投資資金需求</t>
   </si>
   <si>
     <t>投資人</t>
@@ -475,19 +484,16 @@
     <t>其孜投資有限公司</t>
   </si>
   <si>
-    <t>臺中市中央路一段683巷26 弄20號1樓</t>
-  </si>
-  <si>
-    <t>3，000，000</t>
-  </si>
-  <si>
-    <t>1,000，000</t>
-  </si>
-  <si>
-    <t>1，000，000</t>
-  </si>
-  <si>
-    <t>102年07月 11曰</t>
+    <t>臺中市中央路一段683巷26弄20號1樓</t>
+  </si>
+  <si>
+    <t>3000000</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>102年07月11曰</t>
   </si>
   <si>
     <t>投資</t>
@@ -849,13 +855,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,161 +883,308 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>249</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>2757</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>163</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2">
         <v>3180000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>1567.79</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1049,22 +1202,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1072,22 +1225,22 @@
         <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2">
         <v>3121510</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1095,22 +1248,22 @@
         <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1118,22 +1271,22 @@
         <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1141,22 +1294,22 @@
         <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1174,25 +1327,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1200,25 +1353,25 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
         <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1226,25 +1379,25 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
         <v>13073.05</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1252,25 +1405,25 @@
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
         <v>3073.33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1278,25 +1431,25 @@
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>193.04</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1304,22 +1457,22 @@
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
         <v>175.03</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2">
         <v>2600000</v>
@@ -1330,25 +1483,25 @@
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
         <v>51.8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1356,25 +1509,25 @@
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
         <v>184.46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1382,25 +1535,25 @@
         <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2">
         <v>2359.11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1408,25 +1561,25 @@
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2">
         <v>3840.6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1444,22 +1597,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1467,19 +1620,19 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>800000</v>
@@ -1500,22 +1653,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1523,16 +1676,16 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1544,16 +1697,16 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1565,16 +1718,16 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1586,16 +1739,16 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1607,16 +1760,16 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2">
         <v>1930.06</v>
@@ -1630,16 +1783,16 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1651,16 +1804,16 @@
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1672,16 +1825,16 @@
         <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1693,16 +1846,16 @@
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1714,20 +1867,20 @@
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1735,16 +1888,16 @@
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1756,16 +1909,16 @@
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1777,16 +1930,16 @@
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1798,16 +1951,16 @@
         <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1819,16 +1972,16 @@
         <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1840,16 +1993,16 @@
         <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1871,43 +2024,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1915,10 +2068,10 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
         <v>20000</v>
@@ -1927,28 +2080,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2">
         <v>200000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2">
         <v>1377</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="N2" s="2">
         <v>82</v>
@@ -1959,10 +2112,10 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
         <v>60000</v>
@@ -1971,28 +2124,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2">
         <v>600000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2">
         <v>1377</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="N3" s="2">
         <v>83</v>
@@ -2003,10 +2156,10 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>1010</v>
@@ -2015,28 +2168,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2">
         <v>10100</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2">
         <v>1377</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="N4" s="2">
         <v>84</v>
@@ -2047,10 +2200,10 @@
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>7778</v>
@@ -2059,28 +2212,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G5" s="2">
         <v>77780</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2">
         <v>1377</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="N5" s="2">
         <v>85</v>
@@ -2091,10 +2244,10 @@
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>6222</v>
@@ -2103,28 +2256,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G6" s="2">
         <v>62220</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2">
         <v>1377</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="N6" s="2">
         <v>86</v>
@@ -2135,10 +2288,10 @@
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>210000</v>
@@ -2147,28 +2300,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2">
         <v>1377</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="N7" s="2">
         <v>87</v>
@@ -2179,10 +2332,10 @@
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -2191,28 +2344,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G8" s="2">
         <v>20</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L8" s="2">
         <v>1377</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="N8" s="2">
         <v>88</v>
@@ -2233,25 +2386,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2259,13 +2412,13 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2">
         <v>1807.5</v>
@@ -2274,7 +2427,7 @@
         <v>15.06</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H2" s="2">
         <v>27220.95</v>
@@ -2285,13 +2438,13 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2">
         <v>25000</v>
@@ -2300,7 +2453,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H3" s="2">
         <v>500000</v>
@@ -2321,16 +2474,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2338,13 +2491,13 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2">
         <v>250000</v>
@@ -2355,13 +2508,13 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2">
         <v>800000</v>
@@ -2372,13 +2525,13 @@
         <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2">
         <v>250000</v>
@@ -2389,13 +2542,13 @@
         <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E5" s="2">
         <v>300000</v>
@@ -2406,13 +2559,13 @@
         <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>450000</v>
@@ -2433,16 +2586,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2450,16 +2603,16 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2467,16 +2620,16 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2484,16 +2637,16 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2511,22 +2664,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2534,22 +2687,22 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E2" s="2">
         <v>4906941</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2557,22 +2710,22 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E3" s="2">
         <v>2145070</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2580,22 +2733,22 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E4" s="2">
         <v>3078950</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2603,17 +2756,17 @@
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G5" s="2"/>
     </row>

--- a/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -67,7 +67,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺中市清水區清水段清水小段00290000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺中市清水區清水段清水小段00290002地號</t>
@@ -139,27 +142,6 @@
     <t>tmp30a51</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺中市南屯區大新段09139000建號</t>
   </si>
   <si>
@@ -211,39 +193,21 @@
     <t>1150000(車位）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>HondaCRV</t>
   </si>
   <si>
     <t>96年07月11曰</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>玉山商業銀行台中分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>安泰商業銀行豐原分行</t>
   </si>
   <si>
@@ -268,15 +232,9 @@
     <t>元大商業銀行豐原分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -292,12 +250,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>允強實業股份有限公司</t>
-  </si>
-  <si>
     <t>大甲永和機械工業股份有限公司</t>
   </si>
   <si>
@@ -322,42 +274,18 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>復華全球大趨勢基金</t>
   </si>
   <si>
+    <t>復華投信</t>
+  </si>
+  <si>
     <t>寶來滬深300ETF</t>
   </si>
   <si>
-    <t>復華投信</t>
-  </si>
-  <si>
     <t>寶來投信</t>
   </si>
   <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>陳銀輝油畫</t>
   </si>
   <si>
@@ -376,63 +304,42 @@
     <t>察其昌</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>二商美邦人爵</t>
   </si>
   <si>
+    <t>20年繳費祥安終身壽險</t>
+  </si>
+  <si>
+    <t>保額20萬被保險人蔡◦葳</t>
+  </si>
+  <si>
     <t>三商美邦人壽</t>
   </si>
   <si>
     <t>國泰人壽</t>
   </si>
   <si>
-    <t>20年繳費祥安終身壽險</t>
-  </si>
-  <si>
     <t>添美盛美元終身壽險</t>
   </si>
   <si>
-    <t>保額20萬被保險人蔡◦葳</t>
-  </si>
-  <si>
     <t>保額30萬被保險人蔡〇鵬</t>
   </si>
   <si>
     <t>保額3000美元被保險人蔡其昌</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
     <t>第一銀行大甲分行臺中市大甲區順天路361號</t>
   </si>
   <si>
+    <t>100年06月27日</t>
+  </si>
+  <si>
+    <t>原房貸轉貸</t>
+  </si>
+  <si>
     <t>國泰世華銀行沙鹿分行臺中市沙鹿區成功東街86號</t>
   </si>
   <si>
@@ -442,9 +349,6 @@
     <t>玉山銀行台中分行</t>
   </si>
   <si>
-    <t>100年06月27日</t>
-  </si>
-  <si>
     <t>100年06月23日</t>
   </si>
   <si>
@@ -454,25 +358,22 @@
     <t>102年06月</t>
   </si>
   <si>
-    <t>原房貸轉貸</t>
-  </si>
-  <si>
     <t>購置房屋</t>
   </si>
   <si>
     <t>親友與本人投資資金需求</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
+    <t>其孜投資有限公司</t>
+  </si>
+  <si>
+    <t>臺中市中央路一段683巷26弄20號1樓</t>
+  </si>
+  <si>
+    <t>102年07月11曰</t>
+  </si>
+  <si>
+    <t>投資</t>
   </si>
   <si>
     <t>蔡◦葳</t>
@@ -481,22 +382,10 @@
     <t>蔡◦鵬</t>
   </si>
   <si>
-    <t>其孜投資有限公司</t>
-  </si>
-  <si>
-    <t>臺中市中央路一段683巷26弄20號1樓</t>
-  </si>
-  <si>
     <t>3000000</t>
   </si>
   <si>
     <t>1000000</t>
-  </si>
-  <si>
-    <t>102年07月11曰</t>
-  </si>
-  <si>
-    <t>投資</t>
   </si>
 </sst>
 </file>
@@ -855,13 +744,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,287 +793,276 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>249</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>1377</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2757</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <v>1377</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.00605</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>16.67985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>2757</v>
+        <v>163</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>1377</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3180000</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>163</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2">
         <v>1377</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1567.79</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>76</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3180000</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2">
         <v>1377</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1567.79</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1377</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="2">
-        <v>19</v>
+      <c r="P6" s="2">
+        <v>0.03041</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>47.6764939</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1072,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1202,114 +1080,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>114</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3121510</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3121510</v>
+        <v>114</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>148</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +1174,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1327,259 +1182,233 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C1" s="1">
+        <v>163</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
-        <v>163</v>
+        <v>13073.05</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
-        <v>13073.05</v>
+        <v>3073.33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2">
-        <v>3073.33</v>
+        <v>193.04</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2">
-        <v>193.04</v>
+        <v>175.03</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2600000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2">
-        <v>175.03</v>
+        <v>51.8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="2">
-        <v>2600000</v>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2">
-        <v>51.8</v>
+        <v>184.46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2359.11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="2">
-        <v>184.46</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2">
-        <v>2359.11</v>
+        <v>3840.6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3840.6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1418,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1">
+        <v>800000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1597,415 +1459,336 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>140382</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1997</v>
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2">
-        <v>800000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>59</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>140382</v>
+        <v>13990</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>13990</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>1000</v>
+        <v>215951</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1930.06</v>
+      </c>
       <c r="G5" s="2">
-        <v>215951</v>
+        <v>57206.97</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1930.06</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>57206.97</v>
+        <v>63596</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>63596</v>
+        <v>295882</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>295882</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>2004</v>
+        <v>132446</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>132446</v>
+      <c r="G10" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>85</v>
+      <c r="G11" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>1000</v>
+        <v>1418993</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>1418993</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>629</v>
+        <v>1820118</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>1820118</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>75</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
         <v>225</v>
       </c>
     </row>
@@ -2016,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2030,16 +1813,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2065,309 +1848,265 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
-        <v>200000</v>
+        <v>600000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2">
         <v>1377</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N2" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
-        <v>60000</v>
+        <v>1010</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
-        <v>600000</v>
+        <v>10100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2">
         <v>1377</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N3" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2">
-        <v>1010</v>
+        <v>7778</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2">
-        <v>10100</v>
+        <v>77780</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2">
         <v>1377</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N4" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
-        <v>7778</v>
+        <v>6222</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2">
-        <v>77780</v>
+        <v>62220</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2">
         <v>1377</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N5" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
-        <v>6222</v>
+        <v>210000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="2">
-        <v>62220</v>
+        <v>60</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2">
         <v>1377</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N6" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2">
-        <v>210000</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L7" s="2">
         <v>1377</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N7" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
-        <v>88</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="2">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1377</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="2">
         <v>88</v>
       </c>
     </row>
@@ -2378,7 +2117,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2386,76 +2125,50 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1807.5</v>
+      </c>
+      <c r="F1" s="1">
+        <v>15.06</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="H1" s="1">
+        <v>27220.95</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
-        <v>1807.5</v>
+        <v>25000</v>
       </c>
       <c r="F2" s="2">
-        <v>15.06</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2">
-        <v>27220.95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>99</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="2">
-        <v>25000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="2">
         <v>500000</v>
       </c>
     </row>
@@ -2466,7 +2179,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2474,100 +2187,83 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>24</v>
+      </c>
+      <c r="E1" s="1">
+        <v>250000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
-        <v>250000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2">
-        <v>800000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2">
-        <v>250000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>117</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2">
         <v>450000</v>
       </c>
     </row>
@@ -2578,7 +2274,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2586,67 +2282,50 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>124</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2656,7 +2335,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2664,111 +2343,88 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>102</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4906941</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
-        <v>4906941</v>
+        <v>2145070</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2">
-        <v>2145070</v>
+        <v>3078950</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3078950</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>138</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="G4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="123">
   <si>
     <t>name</t>
   </si>
@@ -73,6 +73,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺中市清水區清水段清水小段00290000地號</t>
+  </si>
+  <si>
     <t>臺中市清水區清水段清水小段00290002地號</t>
   </si>
   <si>
@@ -248,6 +251,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>允強實業股份有限公司</t>
   </si>
   <si>
     <t>大甲永和機械工業股份有限公司</t>
@@ -744,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,72 +808,72 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2">
         <v>1377</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>4</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>2757</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>27</v>
@@ -876,48 +882,48 @@
         <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2">
         <v>1377</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.00605</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>16.67985</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>163</v>
+        <v>2757</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -926,142 +932,195 @@
         <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2">
         <v>1377</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0.00605</v>
       </c>
       <c r="Q4" s="2">
-        <v>163</v>
+        <v>16.67985</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3180000</v>
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2">
         <v>1377</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1567.79</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3180000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" s="2">
         <v>1377</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1567.79</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="2">
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2">
         <v>19</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P7" s="2">
         <v>0.03041</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q7" s="2">
         <v>47.6764939</v>
       </c>
     </row>
@@ -1072,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1080,91 +1139,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1">
         <v>3121510</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3121510</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
+        <v>147</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>148</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1174,99 +1256,180 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1">
-        <v>163</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
         <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="2">
-        <v>13073.05</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="2">
-        <v>3073.33</v>
+        <v>13073.05</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2">
+        <v>25</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.00586</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>76.608073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="2">
-        <v>193.04</v>
+        <v>3073.33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1275,140 +1438,355 @@
         <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2">
+        <v>26</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.00469483568075117</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>14.428779342723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="2">
-        <v>175.03</v>
+        <v>193.04</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2600000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2">
+        <v>27</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>193.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="2">
-        <v>51.8</v>
+        <v>175.03</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2600000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2">
+        <v>28</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>175.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
         <v>31</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="2">
-        <v>184.46</v>
+        <v>51.8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2">
+        <v>31</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="2">
-        <v>2359.11</v>
+        <v>184.46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2">
+        <v>32</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>184.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="2">
-        <v>3840.6</v>
+        <v>2359.11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="2">
+        <v>33</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.029122</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>68.70200142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3840.6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="2">
+        <v>34</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.033448</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>128.4603888</v>
       </c>
     </row>
   </sheetData>
@@ -1418,29 +1796,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1">
         <v>1997</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1">
+      <c r="C2" s="2">
+        <v>1997</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2">
         <v>800000</v>
       </c>
     </row>
@@ -1451,7 +1852,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1459,16 +1860,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1477,318 +1878,339 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>13990</v>
+        <v>140382</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>1000</v>
+        <v>13990</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>215951</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1930.06</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>57206.97</v>
+        <v>215951</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1930.06</v>
+      </c>
       <c r="G6" s="2">
-        <v>63596</v>
+        <v>57206.97</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>295882</v>
+        <v>63596</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>2004</v>
+        <v>295882</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>132446</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>71</v>
+      <c r="G10" s="2">
+        <v>132446</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>1000</v>
+      <c r="G11" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>1418993</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>629</v>
+        <v>1418993</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>1820118</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>2222</v>
+        <v>1820118</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>75</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
         <v>225</v>
       </c>
     </row>
@@ -1799,7 +2221,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1813,13 +2235,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1848,265 +2270,309 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2">
-        <v>600000</v>
+        <v>200000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2">
         <v>1377</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2">
-        <v>1010</v>
+        <v>60000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2">
-        <v>10100</v>
+        <v>600000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2">
         <v>1377</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2">
-        <v>7778</v>
+        <v>1010</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2">
-        <v>77780</v>
+        <v>10100</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2">
         <v>1377</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N4" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2">
-        <v>6222</v>
+        <v>7778</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2">
-        <v>62220</v>
+        <v>77780</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2">
         <v>1377</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N5" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="2">
-        <v>210000</v>
+        <v>6222</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
+      </c>
+      <c r="G6" s="2">
+        <v>62220</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" s="2">
         <v>1377</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N6" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2">
-        <v>2</v>
+        <v>210000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="2">
-        <v>20</v>
+        <v>61</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7" s="2">
         <v>1377</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>88</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="2">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="2">
+      <c r="K8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="2">
         <v>88</v>
       </c>
     </row>
@@ -2117,7 +2583,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2125,13 +2591,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1">
         <v>1807.5</v>
@@ -2140,7 +2606,7 @@
         <v>15.06</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1">
         <v>27220.95</v>
@@ -2148,27 +2614,53 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E2" s="2">
+        <v>1807.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>15.06</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="2">
+        <v>27220.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="2">
         <v>25000</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="2">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2">
         <v>500000</v>
       </c>
     </row>
@@ -2179,7 +2671,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2187,13 +2679,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1">
         <v>250000</v>
@@ -2201,69 +2693,86 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2">
-        <v>800000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2">
-        <v>250000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2">
-        <v>300000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
+        <v>116</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>117</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2">
         <v>450000</v>
       </c>
     </row>
@@ -2274,7 +2783,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2282,50 +2791,67 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
+        <v>123</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>124</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>100</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2335,7 +2861,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2343,88 +2869,111 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1">
         <v>4906941</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4906941</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="2">
-        <v>2145070</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2">
-        <v>3078950</v>
+        <v>2145070</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
+        <v>136</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3078950</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>138</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>1150000(車位）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>HondaCRV</t>
@@ -1142,19 +1145,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1">
         <v>3121510</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1165,19 +1168,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2">
         <v>3121510</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1188,19 +1191,19 @@
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1208,22 +1211,22 @@
         <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1231,22 +1234,22 @@
         <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1796,38 +1799,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1">
-        <v>1997</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -1836,13 +1860,34 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="2">
         <v>800000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1860,13 +1905,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -1881,13 +1926,13 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1902,13 +1947,13 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1923,13 +1968,13 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1944,13 +1989,13 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
@@ -1965,13 +2010,13 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -1988,13 +2033,13 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -2009,13 +2054,13 @@
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -2030,13 +2075,13 @@
         <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -2051,13 +2096,13 @@
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -2072,20 +2117,20 @@
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2093,13 +2138,13 @@
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
@@ -2114,13 +2159,13 @@
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -2135,13 +2180,13 @@
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
@@ -2156,13 +2201,13 @@
         <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -2177,13 +2222,13 @@
         <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
@@ -2198,13 +2243,13 @@
         <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -2235,13 +2280,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2273,7 +2318,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -2285,13 +2330,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2">
         <v>200000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -2317,7 +2362,7 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -2329,13 +2374,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2">
         <v>600000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>37</v>
@@ -2361,7 +2406,7 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -2373,13 +2418,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2">
         <v>10100</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>37</v>
@@ -2405,7 +2450,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -2417,13 +2462,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2">
         <v>77780</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>37</v>
@@ -2449,7 +2494,7 @@
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
@@ -2461,13 +2506,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2">
         <v>62220</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>37</v>
@@ -2493,7 +2538,7 @@
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -2505,13 +2550,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>37</v>
@@ -2537,7 +2582,7 @@
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
@@ -2549,13 +2594,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8" s="2">
         <v>20</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>37</v>
@@ -2591,13 +2636,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1">
         <v>1807.5</v>
@@ -2606,7 +2651,7 @@
         <v>15.06</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1">
         <v>27220.95</v>
@@ -2617,13 +2662,13 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>1807.5</v>
@@ -2632,7 +2677,7 @@
         <v>15.06</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2">
         <v>27220.95</v>
@@ -2643,13 +2688,13 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2">
         <v>25000</v>
@@ -2658,7 +2703,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2">
         <v>500000</v>
@@ -2679,7 +2724,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -2696,7 +2741,7 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2713,7 +2758,7 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -2730,7 +2775,7 @@
         <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2747,13 +2792,13 @@
         <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2">
         <v>300000</v>
@@ -2764,7 +2809,7 @@
         <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -2791,16 +2836,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2808,16 +2853,16 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2825,16 +2870,16 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2842,16 +2887,16 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2869,22 +2914,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1">
         <v>4906941</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2892,22 +2937,22 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>4906941</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2915,22 +2960,22 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2">
         <v>2145070</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2938,22 +2983,22 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E4" s="2">
         <v>3078950</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2961,17 +3006,17 @@
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G5" s="2"/>
     </row>

--- a/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="126">
   <si>
     <t>name</t>
   </si>
@@ -196,6 +196,9 @@
     <t>1150000(車位）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -203,6 +206,9 @@
   </si>
   <si>
     <t>96年07月11曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>玉山商業銀行台中分行</t>
@@ -1145,19 +1151,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1">
         <v>3121510</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1168,19 +1174,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2">
         <v>3121510</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1191,19 +1197,19 @@
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1211,22 +1217,22 @@
         <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1234,22 +1240,22 @@
         <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1341,7 +1347,7 @@
         <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>37</v>
@@ -1394,7 +1400,7 @@
         <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>37</v>
@@ -1447,7 +1453,7 @@
         <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>37</v>
@@ -1500,7 +1506,7 @@
         <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>37</v>
@@ -1553,7 +1559,7 @@
         <v>2600000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>37</v>
@@ -1606,7 +1612,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>37</v>
@@ -1659,7 +1665,7 @@
         <v>54</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>37</v>
@@ -1712,7 +1718,7 @@
         <v>55</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>37</v>
@@ -1765,7 +1771,7 @@
         <v>56</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>37</v>
@@ -1810,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1851,7 +1857,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -1860,7 +1866,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>33</v>
@@ -1869,7 +1875,7 @@
         <v>800000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -1905,13 +1911,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -1926,13 +1932,13 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1947,13 +1953,13 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1968,13 +1974,13 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1989,13 +1995,13 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
@@ -2010,13 +2016,13 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -2033,13 +2039,13 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -2054,13 +2060,13 @@
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -2075,13 +2081,13 @@
         <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -2096,13 +2102,13 @@
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -2117,20 +2123,20 @@
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2138,13 +2144,13 @@
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
@@ -2159,13 +2165,13 @@
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -2180,13 +2186,13 @@
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
@@ -2201,13 +2207,13 @@
         <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -2222,13 +2228,13 @@
         <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
@@ -2243,13 +2249,13 @@
         <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -2280,13 +2286,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2318,7 +2324,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -2330,13 +2336,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2">
         <v>200000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -2362,7 +2368,7 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -2374,13 +2380,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2">
         <v>600000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>37</v>
@@ -2406,7 +2412,7 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -2418,13 +2424,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2">
         <v>10100</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>37</v>
@@ -2450,7 +2456,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -2462,13 +2468,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2">
         <v>77780</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>37</v>
@@ -2494,7 +2500,7 @@
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
@@ -2506,13 +2512,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2">
         <v>62220</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>37</v>
@@ -2538,7 +2544,7 @@
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -2550,13 +2556,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>37</v>
@@ -2582,7 +2588,7 @@
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
@@ -2594,13 +2600,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G8" s="2">
         <v>20</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>37</v>
@@ -2636,13 +2642,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1">
         <v>1807.5</v>
@@ -2651,7 +2657,7 @@
         <v>15.06</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1">
         <v>27220.95</v>
@@ -2662,13 +2668,13 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2">
         <v>1807.5</v>
@@ -2677,7 +2683,7 @@
         <v>15.06</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H2" s="2">
         <v>27220.95</v>
@@ -2688,13 +2694,13 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
         <v>25000</v>
@@ -2703,7 +2709,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2">
         <v>500000</v>
@@ -2724,7 +2730,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -2741,7 +2747,7 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2758,7 +2764,7 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -2775,7 +2781,7 @@
         <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2792,13 +2798,13 @@
         <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2">
         <v>300000</v>
@@ -2809,7 +2815,7 @@
         <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -2836,16 +2842,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2853,16 +2859,16 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2870,16 +2876,16 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2887,16 +2893,16 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2914,22 +2920,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1">
         <v>4906941</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2937,22 +2943,22 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2">
         <v>4906941</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2960,22 +2966,22 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2">
         <v>2145070</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2983,22 +2989,22 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2">
         <v>3078950</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3006,17 +3012,17 @@
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G5" s="2"/>
     </row>

--- a/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="128">
   <si>
     <t>name</t>
   </si>
@@ -211,55 +211,61 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>玉山商業銀行台中分行</t>
   </si>
   <si>
+    <t>安泰商業銀行豐原分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行豐原分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行西台中分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行沙鹿分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行南台中分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行北台中分行</t>
+  </si>
+  <si>
+    <t>元大商業銀行沙鹿分行</t>
+  </si>
+  <si>
+    <t>元大商業銀行豐原分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>安泰商業銀行豐原分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行豐原分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行西台中分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行沙鹿分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行南台中分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行北台中分行</t>
-  </si>
-  <si>
-    <t>元大商業銀行沙鹿分行</t>
-  </si>
-  <si>
-    <t>元大商業銀行豐原分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>5460</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>允強實業股份有限公司</t>
@@ -1151,19 +1157,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1">
         <v>3121510</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1174,19 +1180,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2">
         <v>3121510</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1197,19 +1203,19 @@
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1217,22 +1223,22 @@
         <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1240,22 +1246,22 @@
         <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1903,13 +1909,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1920,349 +1926,687 @@
         <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>140382</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>140382</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>13990</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>215951</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="2">
-        <v>1930.06</v>
-      </c>
-      <c r="G6" s="2">
         <v>57206.97</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>63596</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>295882</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>2004</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>132446</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>5460</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>1418993</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>629</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>1820118</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>2222</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>225</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2286,13 +2630,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2324,7 +2668,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -2336,13 +2680,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2">
         <v>200000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -2368,7 +2712,7 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -2380,13 +2724,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2">
         <v>600000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>37</v>
@@ -2412,7 +2756,7 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -2424,13 +2768,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2">
         <v>10100</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>37</v>
@@ -2456,7 +2800,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -2468,13 +2812,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2">
         <v>77780</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>37</v>
@@ -2500,7 +2844,7 @@
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
@@ -2512,13 +2856,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G6" s="2">
         <v>62220</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>37</v>
@@ -2544,7 +2888,7 @@
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -2556,13 +2900,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>37</v>
@@ -2588,7 +2932,7 @@
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
@@ -2600,13 +2944,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2">
         <v>20</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>37</v>
@@ -2642,13 +2986,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1">
         <v>1807.5</v>
@@ -2657,7 +3001,7 @@
         <v>15.06</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1">
         <v>27220.95</v>
@@ -2668,13 +3012,13 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>1807.5</v>
@@ -2683,7 +3027,7 @@
         <v>15.06</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H2" s="2">
         <v>27220.95</v>
@@ -2694,13 +3038,13 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2">
         <v>25000</v>
@@ -2709,7 +3053,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2">
         <v>500000</v>
@@ -2730,7 +3074,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -2747,7 +3091,7 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2764,7 +3108,7 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -2781,7 +3125,7 @@
         <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2798,13 +3142,13 @@
         <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2">
         <v>300000</v>
@@ -2815,7 +3159,7 @@
         <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -2842,16 +3186,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2859,16 +3203,16 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2876,16 +3220,16 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2893,16 +3237,16 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2920,22 +3264,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1">
         <v>4906941</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2943,22 +3287,22 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2">
         <v>4906941</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2966,22 +3310,22 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2">
         <v>2145070</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2989,22 +3333,22 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E4" s="2">
         <v>3078950</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3012,17 +3356,17 @@
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G5" s="2"/>
     </row>

--- a/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="131">
   <si>
     <t>name</t>
   </si>
@@ -295,18 +295,24 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>復華全球大趨勢基金</t>
   </si>
   <si>
+    <t>寶來滬深300ETF</t>
+  </si>
+  <si>
     <t>復華投信</t>
   </si>
   <si>
-    <t>寶來滬深300ETF</t>
-  </si>
-  <si>
     <t>寶來投信</t>
   </si>
   <si>
+    <t>fund</t>
+  </si>
+  <si>
     <t>陳銀輝油畫</t>
   </si>
   <si>
@@ -323,6 +329,9 @@
   </si>
   <si>
     <t>察其昌</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>二商美邦人爵</t>
@@ -1157,19 +1166,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1">
         <v>3121510</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1180,19 +1189,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2">
         <v>3121510</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1203,19 +1212,19 @@
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1223,22 +1232,22 @@
         <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1246,22 +1255,22 @@
         <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2978,47 +2987,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1807.5</v>
-      </c>
-      <c r="F1" s="1">
-        <v>15.06</v>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="1">
-        <v>27220.95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2">
         <v>1807.5</v>
@@ -3032,8 +3062,29 @@
       <c r="H2" s="2">
         <v>27220.95</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>99</v>
       </c>
@@ -3044,7 +3095,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2">
         <v>25000</v>
@@ -3057,6 +3108,27 @@
       </c>
       <c r="H3" s="2">
         <v>500000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3066,32 +3138,53 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3102,13 +3195,34 @@
       <c r="E2" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1377</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -3119,13 +3233,34 @@
       <c r="E3" s="2">
         <v>800000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1377</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -3136,30 +3271,72 @@
       <c r="E4" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1377</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1377</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -3169,6 +3346,27 @@
       </c>
       <c r="E6" s="2">
         <v>450000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1377</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="2">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3186,16 +3384,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3203,16 +3401,16 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3220,16 +3418,16 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3237,16 +3435,16 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3264,22 +3462,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1">
         <v>4906941</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3287,22 +3485,22 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2">
         <v>4906941</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3310,22 +3508,22 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2">
         <v>2145070</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3333,22 +3531,22 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E4" s="2">
         <v>3078950</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3356,17 +3554,17 @@
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G5" s="2"/>
     </row>

--- a/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2013-12-24_財產申報表_tmp30a51.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="133">
   <si>
     <t>name</t>
   </si>
@@ -331,31 +331,34 @@
     <t>察其昌</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>二商美邦人爵</t>
   </si>
   <si>
+    <t>三商美邦人壽</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
     <t>20年繳費祥安終身壽險</t>
   </si>
   <si>
-    <t>保額20萬被保險人蔡◦葳</t>
-  </si>
-  <si>
-    <t>三商美邦人壽</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
     <t>添美盛美元終身壽險</t>
   </si>
   <si>
-    <t>保額30萬被保險人蔡〇鵬</t>
-  </si>
-  <si>
-    <t>保額3000美元被保險人蔡其昌</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -364,36 +367,48 @@
     <t>第一銀行大甲分行臺中市大甲區順天路361號</t>
   </si>
   <si>
+    <t>國泰世華銀行沙鹿分行臺中市沙鹿區成功東街86號</t>
+  </si>
+  <si>
+    <t>安泰銀行豐原分行臺中市豐原區信義街67巷15號</t>
+  </si>
+  <si>
+    <t>玉山銀行台中分行臺中市西屯區市政路388號</t>
+  </si>
+  <si>
     <t>100年06月27日</t>
   </si>
   <si>
+    <t>100年06月23日</t>
+  </si>
+  <si>
+    <t>91年04月04日</t>
+  </si>
+  <si>
+    <t>102年06月03日</t>
+  </si>
+  <si>
     <t>原房貸轉貸</t>
   </si>
   <si>
-    <t>國泰世華銀行沙鹿分行臺中市沙鹿區成功東街86號</t>
-  </si>
-  <si>
-    <t>安泰銀行豐原分行臺中市豐原區信義街67巷15號</t>
-  </si>
-  <si>
-    <t>玉山銀行台中分行</t>
-  </si>
-  <si>
-    <t>100年06月23日</t>
-  </si>
-  <si>
-    <t>91年04月04日</t>
-  </si>
-  <si>
-    <t>102年06月</t>
-  </si>
-  <si>
     <t>購置房屋</t>
   </si>
   <si>
     <t>親友與本人投資資金需求</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>蔡◦葳</t>
+  </si>
+  <si>
+    <t>蔡◦鵬</t>
+  </si>
+  <si>
     <t>其孜投資有限公司</t>
   </si>
   <si>
@@ -406,16 +421,7 @@
     <t>投資</t>
   </si>
   <si>
-    <t>蔡◦葳</t>
-  </si>
-  <si>
-    <t>蔡◦鵬</t>
-  </si>
-  <si>
-    <t>3000000</t>
-  </si>
-  <si>
-    <t>1000000</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -1155,122 +1161,227 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3121510</v>
+        <v>125</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2">
         <v>3121510</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>131</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E3" s="2">
+        <v>3000000</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>144</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>147</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>145</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>148</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="2">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3376,52 +3487,88 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>109</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1377</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -3429,13 +3576,31 @@
       <c r="E3" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1377</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>108</v>
@@ -3444,7 +3609,25 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1377</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3454,67 +3637,109 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4906941</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2">
         <v>4906941</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>121</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2">
         <v>2145070</v>
@@ -3523,21 +3748,42 @@
         <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>122</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2">
         <v>3078950</v>
@@ -3546,27 +3792,73 @@
         <v>119</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>123</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="E5" s="2">
+        <v>19887408</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="2">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
